--- a/protokoll.xlsx
+++ b/protokoll.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="123">
   <si>
     <t xml:space="preserve">Commit Nr:</t>
   </si>
@@ -40,6 +40,22 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
+    <t xml:space="preserve">Weitere Commits gehören nicht zur Entwicklung des Spieles und stehen auf der Github Seite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oscar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sun   Jun    14    21:49:35 2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hot fix in Website aktualisiert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">spieler ist die Klasse und Spieler ist die Variable die übergeben wurde
+Wir brauchten Spieler und nicht spieler</t>
+  </si>
+  <si>
     <t xml:space="preserve">Bendix</t>
   </si>
   <si>
@@ -76,7 +92,9 @@
     <t xml:space="preserve">Monsterwahl optimiert</t>
   </si>
   <si>
-    <t xml:space="preserve">Die Wahl der Monster erfolgt nun nicht mehr durch eine if abfrage einer Zufallszahl die einem Monster zugeordnet ist sondern durch das zufällige auswählen eines Ojektes aus einer Liste</t>
+    <t xml:space="preserve">Die Wahl der Monster erfolgt nun nicht mehr durch eine if abfrage einer 
+Zufallszahl die einem Monster zugeordnet ist sondern durch das zufällige
+ Auswählen eines Ojektes aus einer Liste</t>
   </si>
   <si>
     <t xml:space="preserve">Fri     Jun    12    23:25:33 2020</t>
@@ -101,9 +119,6 @@
   </si>
   <si>
     <t xml:space="preserve">Jede eingabe des Spielers wird nun überprüft und das Spiel kann dadurch schehr gecrasht werden</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oscar</t>
   </si>
   <si>
     <t xml:space="preserve">Fri     Jun    12    15:40:10 2020</t>
@@ -400,7 +415,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="DDDD&quot;, &quot;D/\ MMMM\ YYYY"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -421,11 +436,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -470,7 +480,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -479,11 +489,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -504,20 +518,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F44"/>
+  <dimension ref="A1:F46"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E4" activeCellId="0" sqref="E4"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="33.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="75.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="60.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="60.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="12.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="10.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="8.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -540,103 +556,93 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C2" s="1"/>
     </row>
-    <row r="3" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
-        <f aca="false">A4+1</f>
-        <v>41</v>
-      </c>
-      <c r="B3" s="0" t="s">
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="0" t="s">
+      <c r="C3" s="1"/>
+    </row>
+    <row r="4" customFormat="false" ht="24.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>42</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="D4" s="0" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
-        <f aca="false">A5+1</f>
-        <v>40</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="0" t="s">
+      <c r="E4" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
         <f aca="false">A6+1</f>
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="E5" s="0" t="s">
         <v>14</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
         <f aca="false">A7+1</f>
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C6" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="E6" s="0" t="s">
         <v>17</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
         <f aca="false">A8+1</f>
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C7" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="E7" s="0" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="35.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
         <f aca="false">A9+1</f>
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C8" s="0" t="s">
         <v>21</v>
@@ -644,144 +650,147 @@
       <c r="D8" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="0" t="s">
+      <c r="E8" s="2" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
         <f aca="false">A10+1</f>
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C9" s="0" t="s">
         <v>24</v>
       </c>
       <c r="D9" s="0" t="s">
         <v>25</v>
-      </c>
-      <c r="E9" s="0" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
         <f aca="false">A11+1</f>
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B10" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="E10" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" s="2"/>
     </row>
     <row r="11" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="n">
         <f aca="false">A12+1</f>
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="C11" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="0" t="s">
+      <c r="E11" s="0" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="26.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="n">
         <f aca="false">A13+1</f>
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="C12" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>34</v>
-      </c>
+      <c r="E12" s="3"/>
     </row>
     <row r="13" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="n">
         <f aca="false">A14+1</f>
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C13" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="0" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="14" customFormat="false" ht="26.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="n">
         <f aca="false">A15+1</f>
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C14" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="0" t="s">
+      <c r="D14" s="3" t="s">
         <v>37</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="n">
         <f aca="false">A16+1</f>
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="26.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="n">
         <f aca="false">A17+1</f>
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="C16" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="0" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="n">
         <f aca="false">A18+1</f>
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C17" s="0" t="s">
         <v>42</v>
@@ -789,478 +798,508 @@
       <c r="D17" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="E17" s="0" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="18" customFormat="false" ht="26.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="n">
         <f aca="false">A19+1</f>
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C18" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" s="3" t="s">
         <v>45</v>
-      </c>
-      <c r="D18" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="E18" s="0" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="n">
         <f aca="false">A20+1</f>
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C19" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="E19" s="0" t="s">
         <v>48</v>
-      </c>
-      <c r="D19" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="E19" s="0" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="n">
         <f aca="false">A21+1</f>
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C20" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="E20" s="0" t="s">
         <v>51</v>
-      </c>
-      <c r="D20" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="E20" s="0" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="n">
         <f aca="false">A22+1</f>
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C21" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="E21" s="0" t="s">
         <v>54</v>
-      </c>
-      <c r="D21" s="0" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="n">
         <f aca="false">A23+1</f>
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C22" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="D22" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="D22" s="0" t="s">
+      <c r="E22" s="0" t="s">
         <v>57</v>
-      </c>
-      <c r="E22" s="0" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="n">
         <f aca="false">A24+1</f>
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C23" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="D23" s="0" t="s">
         <v>59</v>
-      </c>
-      <c r="D23" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="E23" s="0" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="n">
         <f aca="false">A25+1</f>
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C24" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="E24" s="0" t="s">
         <v>62</v>
-      </c>
-      <c r="D24" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="E24" s="0" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="n">
         <f aca="false">A26+1</f>
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C25" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="E25" s="0" t="s">
         <v>65</v>
-      </c>
-      <c r="D25" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="E25" s="0" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="n">
         <f aca="false">A27+1</f>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C26" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="D26" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="E26" s="0" t="s">
         <v>68</v>
       </c>
-      <c r="D26" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="E26" s="0" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="27" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="n">
         <f aca="false">A28+1</f>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C27" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="D27" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="E27" s="0" t="s">
         <v>71</v>
-      </c>
-      <c r="D27" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="n">
         <f aca="false">A29+1</f>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C28" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="D28" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="E28" s="0" t="s">
         <v>74</v>
       </c>
-      <c r="D28" s="0" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="26.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="n">
         <f aca="false">A30+1</f>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="C29" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="D29" s="0" t="s">
         <v>76</v>
       </c>
-      <c r="D29" s="0" t="s">
+      <c r="E29" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="E29" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="52.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="30" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="n">
         <f aca="false">A31+1</f>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="C30" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="D30" s="0" t="s">
         <v>79</v>
       </c>
-      <c r="D30" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="31" customFormat="false" ht="26.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="n">
         <f aca="false">A32+1</f>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="C31" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="D31" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="E31" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="D31" s="0" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="32" customFormat="false" ht="52.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="n">
         <f aca="false">A33+1</f>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C32" s="0" t="s">
         <v>83</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="E32" s="0" t="s">
         <v>84</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="n">
         <f aca="false">A34+1</f>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="E33" s="0" t="s">
-        <v>87</v>
+        <v>35</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="n">
         <f aca="false">A35+1</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="C34" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="D34" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="E34" s="0" t="s">
         <v>88</v>
       </c>
-      <c r="D34" s="0" t="s">
-        <v>89</v>
-      </c>
-      <c r="E34" s="0" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="39.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="35" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="n">
         <f aca="false">A36+1</f>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="C35" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="D35" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="E35" s="0" t="s">
         <v>91</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="n">
         <f aca="false">A37+1</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="C36" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="D36" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="E36" s="0" t="s">
         <v>94</v>
       </c>
-      <c r="D36" s="0" t="s">
-        <v>95</v>
-      </c>
-      <c r="E36" s="0" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="26.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="37" customFormat="false" ht="39.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="n">
         <f aca="false">A38+1</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="C37" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E37" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="D37" s="0" t="s">
-        <v>98</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="38" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="n">
         <f aca="false">A39+1</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C38" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="D38" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="E38" s="0" t="s">
         <v>100</v>
-      </c>
-      <c r="D38" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="26.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="n">
         <f aca="false">A40+1</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="C39" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="D39" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="E39" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="D39" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="26.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="n">
         <f aca="false">A41+1</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="C40" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="D40" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="E40" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="D40" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="41" customFormat="false" ht="26.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="n">
         <f aca="false">A42+1</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="C41" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="D41" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="E41" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="D41" s="0" t="s">
-        <v>110</v>
-      </c>
-      <c r="E41" s="0" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="42" customFormat="false" ht="26.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="n">
         <f aca="false">A43+1</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="C42" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="E42" s="3" t="s">
         <v>112</v>
-      </c>
-      <c r="D42" s="0" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="n">
         <f aca="false">A44+1</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="C43" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="D43" s="0" t="s">
         <v>114</v>
       </c>
-      <c r="D43" s="0" t="s">
+      <c r="E43" s="0" t="s">
         <v>115</v>
-      </c>
-      <c r="E43" s="0" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="n">
+        <f aca="false">A45+1</f>
+        <v>2</v>
+      </c>
+      <c r="B44" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C44" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="D44" s="0" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0" t="n">
+        <f aca="false">A46+1</f>
+        <v>1</v>
+      </c>
+      <c r="B45" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C45" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="D45" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="E45" s="0" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="B44" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="C44" s="0" t="s">
-        <v>117</v>
-      </c>
-      <c r="D44" s="0" t="s">
-        <v>118</v>
+      <c r="B46" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C46" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="D46" s="0" t="s">
+        <v>122</v>
       </c>
     </row>
   </sheetData>
